--- a/biology/Médecine/Régime_diabétique/Régime_diabétique.xlsx
+++ b/biology/Médecine/Régime_diabétique/Régime_diabétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_diab%C3%A9tique</t>
+          <t>Régime_diabétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un régime alimentaire pour diabétiques est un régime utilisé par les personnes atteintes de diabète sucré ou d'hyperglycémie pour réduire les symptômes et les conséquences dangereuses de la maladie.
-Puisque les glucides sont le macronutriment qui augmente le plus la glycémie, le débat le plus important est de savoir à quel point le régime alimentaire devrait être faible en carbohydrates. En effet, bien que réduire l'apport en glucides aide à réduire la glycémie, un régime alimentaire pauvre en glucides va à l'encontre de la conception traditionnelle selon laquelle les glucides devraient être la principale source de calories. Les recommandations concernant la fraction des calories totales à obtenir à partir des glucides vont généralement de 20 % à 45%[1] mais peuvent aller de 16 % à 75%[1],[2].
-Pour les personnes en surpoids et obèses atteintes de diabète de type 2, tout régime amaigrissant auquel la personne adhère et sur laquelle il est susceptible de perdre du poids est au moins partiellement efficace[3],[4].
-La recommandation la plus commune est que le régime alimentaire soit faible en sucre et en glucides raffinés, tout en étant relativement riche en fibres alimentaires, en particulier en fibres solubles. Les personnes atteintes de diabète sont également encouragées à prendre de petits repas fréquents. De même, les personnes diabétiques peuvent être encouragées à réduire leur consommation de glucides à indice glycémique élevé (IG), bien que cela reste également controversé[5]. (En cas d'hypoglycémie, il leur est conseillé de consommer des aliments ou des boissons pouvant faire augmenter rapidement le taux de glucose dans le sang, tels que des boissons sportives sucrées, suivis d'un hydrate de carbone à action prolongée (tel que du pain de seigle) afin d'éviter tout risque d'hypoglycémie. D'autres s'interrogent sur l'utilité de l'index glycémique et recommandent des aliments à IG élevé, tels que les pommes de terre et le riz[réf. nécessaire]. Il a été réclamé que l'acide oléique a un léger avantage sur l'acide linoléique en réduisant le glucose de plasma[6].
+Puisque les glucides sont le macronutriment qui augmente le plus la glycémie, le débat le plus important est de savoir à quel point le régime alimentaire devrait être faible en carbohydrates. En effet, bien que réduire l'apport en glucides aide à réduire la glycémie, un régime alimentaire pauvre en glucides va à l'encontre de la conception traditionnelle selon laquelle les glucides devraient être la principale source de calories. Les recommandations concernant la fraction des calories totales à obtenir à partir des glucides vont généralement de 20 % à 45% mais peuvent aller de 16 % à 75%,.
+Pour les personnes en surpoids et obèses atteintes de diabète de type 2, tout régime amaigrissant auquel la personne adhère et sur laquelle il est susceptible de perdre du poids est au moins partiellement efficace,.
+La recommandation la plus commune est que le régime alimentaire soit faible en sucre et en glucides raffinés, tout en étant relativement riche en fibres alimentaires, en particulier en fibres solubles. Les personnes atteintes de diabète sont également encouragées à prendre de petits repas fréquents. De même, les personnes diabétiques peuvent être encouragées à réduire leur consommation de glucides à indice glycémique élevé (IG), bien que cela reste également controversé. (En cas d'hypoglycémie, il leur est conseillé de consommer des aliments ou des boissons pouvant faire augmenter rapidement le taux de glucose dans le sang, tels que des boissons sportives sucrées, suivis d'un hydrate de carbone à action prolongée (tel que du pain de seigle) afin d'éviter tout risque d'hypoglycémie. D'autres s'interrogent sur l'utilité de l'index glycémique et recommandent des aliments à IG élevé, tels que les pommes de terre et le riz[réf. nécessaire]. Il a été réclamé que l'acide oléique a un léger avantage sur l'acide linoléique en réduisant le glucose de plasma.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_diab%C3%A9tique</t>
+          <t>Régime_diabétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,11 +526,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il existe depuis longtemps un traitement diététique du diabète sucré qui était utilisé en Égypte depuis 3 500 av J.-C.[7],[8] et en Inde par Sushruta et Charaka il y a plus de 2 000 ans[7]. Au XVIIIe siècle, John Rollo a soutenu que la restriction calorique pourrait réduire la glycosurie dans le diabète[7].
-Frederick Madison Allen et Elliott Joslin qui, au début du XXe siècle, avant la découverte de l'insuline, recommandèrent aux diabétiques de ne consommer qu'un régime hypocalorique et presque sans glucides pour prévenir l'acidocétose qui leur était mortelle. Bien que cette approche puisse prolonger la vie d'une période limitée, les patients ont développé divers autres problèmes médicaux[9].
-L'introduction de l'insuline par Frederick Banting en 1922 a donné aux patients plus de flexibilité dans leur alimentation[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il existe depuis longtemps un traitement diététique du diabète sucré qui était utilisé en Égypte depuis 3 500 av J.-C., et en Inde par Sushruta et Charaka il y a plus de 2 000 ans. Au XVIIIe siècle, John Rollo a soutenu que la restriction calorique pourrait réduire la glycosurie dans le diabète.
+Frederick Madison Allen et Elliott Joslin qui, au début du XXe siècle, avant la découverte de l'insuline, recommandèrent aux diabétiques de ne consommer qu'un régime hypocalorique et presque sans glucides pour prévenir l'acidocétose qui leur était mortelle. Bien que cette approche puisse prolonger la vie d'une période limitée, les patients ont développé divers autres problèmes médicaux.
+L'introduction de l'insuline par Frederick Banting en 1922 a donné aux patients plus de flexibilité dans leur alimentation.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_diab%C3%A9tique</t>
+          <t>Régime_diabétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Schéma d'échange</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1950, l’American Diabetes Association, en collaboration avec le US Public Health Service, a introduit le "système d’échange". Cela a permis aux gens d’échanger des aliments ayant une valeur nutritionnelle similaire (par exemple, des glucides) contre un autre. Par exemple, si vous souhaitez avoir plus de glucides que la normale pour le dessert, vous pouvez réduire la consommation de pommes de terre dès le premier plat. Le système d'échange a été révisé en 1976, 1986 et 1995[10].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1950, l’American Diabetes Association, en collaboration avec le US Public Health Service, a introduit le "système d’échange". Cela a permis aux gens d’échanger des aliments ayant une valeur nutritionnelle similaire (par exemple, des glucides) contre un autre. Par exemple, si vous souhaitez avoir plus de glucides que la normale pour le dessert, vous pouvez réduire la consommation de pommes de terre dès le premier plat. Le système d'échange a été révisé en 1976, 1986 et 1995.
 </t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_diab%C3%A9tique</t>
+          <t>Régime_diabétique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,13 +594,15 @@
           <t>Développements ultérieurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Aujourd'hui, tous les diététiciens spécialisés en diabète ne recommandent pas le système d'échange. Au lieu de cela, ils sont susceptibles de recommander un régime alimentaire sain typique: riche en fibres, avec une variété de fruits et de légumes, et pauvre en sucre et en gras, en particulier en gras saturés.
-James Anderson a recommandé une alimentation riche en fibres végétales[11]. Cela peut être compris comme la continuation des travaux de Denis Burkitt et Hugh Trowell sur les fibres alimentaires[12] suivant les travaux de Price[13]. Il est toujours recommandé aux personnes atteintes de diabète de suivre un régime riche en fibres alimentaires.
-En 1976, Nathan Pritikin a ouvert un centre où les patients étaient soumis à un programme de régime et d'activité physique (le programme Pritikin). Ce régime est riche en glucides et en fibres, avec des fruits frais, des légumes et des grains entiers. Une étude menée à l'UCLA en 2005 a montré que cela avait apporté une amélioration spectaculaire à un groupe de personnes atteintes de diabète ou de pré-diabète en trois semaines, de sorte que près de la moitié ne répondaient plus aux critères de la maladie[14],[15],[16],[17].
+James Anderson a recommandé une alimentation riche en fibres végétales. Cela peut être compris comme la continuation des travaux de Denis Burkitt et Hugh Trowell sur les fibres alimentaires suivant les travaux de Price. Il est toujours recommandé aux personnes atteintes de diabète de suivre un régime riche en fibres alimentaires.
+En 1976, Nathan Pritikin a ouvert un centre où les patients étaient soumis à un programme de régime et d'activité physique (le programme Pritikin). Ce régime est riche en glucides et en fibres, avec des fruits frais, des légumes et des grains entiers. Une étude menée à l'UCLA en 2005 a montré que cela avait apporté une amélioration spectaculaire à un groupe de personnes atteintes de diabète ou de pré-diabète en trois semaines, de sorte que près de la moitié ne répondaient plus aux critères de la maladie.
 D'autre part, en 1983, Richard K. Bernstein a commencé à traiter les personnes atteintes de diabète et de pré-diabète avec un régime alimentaire contenant très peu de glucides, en évitant les fruits, le sucre ajouté et l'amidon. L’approche de Pritikin et l’approche de Bernstein prescrivent une activité physique conséquente.
-Une approche populaire chez certaines personnes atteintes de diabète de type 1 depuis 2000 est connue sous le nom de DAFNE (Ajustement de la dose pour une alimentation normale). Cette approche consiste à estimer la quantité de glucides dans un repas et à modifier la quantité d'insuline injectée en conséquence. Une approche équivalente pour les personnes atteintes de diabète de type 2 est connue sous le nom de DESMOND, qui signifie éducation au diabète et autogestion pour le diabète connu ou de diagnostic récent. DAFNE a un bulletin d’information et a reçu une recommandation[18].
+Une approche populaire chez certaines personnes atteintes de diabète de type 1 depuis 2000 est connue sous le nom de DAFNE (Ajustement de la dose pour une alimentation normale). Cette approche consiste à estimer la quantité de glucides dans un repas et à modifier la quantité d'insuline injectée en conséquence. Une approche équivalente pour les personnes atteintes de diabète de type 2 est connue sous le nom de DESMOND, qui signifie éducation au diabète et autogestion pour le diabète connu ou de diagnostic récent. DAFNE a un bulletin d’information et a reçu une recommandation.
 </t>
         </is>
       </c>
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_diab%C3%A9tique</t>
+          <t>Régime_diabétique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,16 +631,18 @@
           <t>Les glucides</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1994, l’American Diabetes Association avait recommandé que 60 à 70 % de l’apport calorique soit sous forme de glucides. Comme mentionné ci-dessus, ceci est controversé, certains chercheurs affirmant que 40 % de glucides[19] voire moins est préférable, alors que d'autres continuent à prôner les bénéfices d'un régime riche en fibres et en glucides[20].
-Un article résumant l'opinion de l'American Diabetes Association[21] contient les déclarations suivantes :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1994, l’American Diabetes Association avait recommandé que 60 à 70 % de l’apport calorique soit sous forme de glucides. Comme mentionné ci-dessus, ceci est controversé, certains chercheurs affirmant que 40 % de glucides voire moins est préférable, alors que d'autres continuent à prôner les bénéfices d'un régime riche en fibres et en glucides.
+Un article résumant l'opinion de l'American Diabetes Association contient les déclarations suivantes :
 "Les aliments contenant du saccharose peuvent être substitués à d'autres glucides dans le régime alimentaire ou, s'ils sont ajoutés au régime alimentaire, contrebalancé par un supplément d'insuline ou d'autres médicaments hypoglycémiants. Il faut veiller à éviter un apport énergétique excessif. "
-Le saccharose n'augmente pas la glycémie plus que le même nombre de calories absorbées sous forme d'amidon[21],[22].
-Il n'est pas recommandé d'utiliser du fructose en tant qu'édulcorant car il pourrait avoir des effets néfastes sur les lipides plasmatiques[22].
+Le saccharose n'augmente pas la glycémie plus que le même nombre de calories absorbées sous forme d'amidon,.
+Il n'est pas recommandé d'utiliser du fructose en tant qu'édulcorant car il pourrait avoir des effets néfastes sur les lipides plasmatiques.
 Des avantages peuvent être obtenus par la consommation de fibres alimentaires.
-Francis (1987) souligne que les preuves suggèrent que les glucides consommés avec des fibres alimentaires auront moins d’effet sur l’augmentation de la glycémie que la même quantité de glucides consommée seule[réf. nécessaire]. En raison de leurs niveaux élevés de fibres alimentaires, certains aliments sont considérés comme particulièrement bénéfiques pour les personnes diabétiques telles que les légumineuses, les noix, les fruits et les légumes[23].
-Ce qui n’a généralement pas été inclus dans les recommandations du régime alimentaire des diabétiques, c’est la variation de l’effet de différents glucides. Il a été recommandé que les glucides consommés par les diabétiques soient des glucides complexes[24].
+Francis (1987) souligne que les preuves suggèrent que les glucides consommés avec des fibres alimentaires auront moins d’effet sur l’augmentation de la glycémie que la même quantité de glucides consommée seule[réf. nécessaire]. En raison de leurs niveaux élevés de fibres alimentaires, certains aliments sont considérés comme particulièrement bénéfiques pour les personnes diabétiques telles que les légumineuses, les noix, les fruits et les légumes.
+Ce qui n’a généralement pas été inclus dans les recommandations du régime alimentaire des diabétiques, c’est la variation de l’effet de différents glucides. Il a été recommandé que les glucides consommés par les diabétiques soient des glucides complexes.
 </t>
         </is>
       </c>
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_diab%C3%A9tique</t>
+          <t>Régime_diabétique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,10 +671,12 @@
           <t>Alternatives à faible teneur en glucides</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un régime alimentaire faible en glucides ou à faible indice glycémique peut constituer une option alimentaire efficace pour gérer le diabète de type 2. Celles-ci ont été promues comme efficaces en réduisant les pics de glycémie après avoir mangé[25]. Cependant, la principale contribution pourrait être que les personnes obèses ou obèses atteintes de diabète de type 2 perdent souvent du poids en suivant ces régimes[3],[4]. Tout régime entraînant une perte de poids importante chez les personnes obèses ou obèses souffrant de diabète de type 2 est associé à une amélioration du contrôle de la glycémie[3],[4].
-Richard K. Bernstein est critique à l'égard du plan de régime standard de l'American Diabetes Association. Son plan comprend un régime pauvre en glucides (30 grammes par jour), avec une surveillance fréquente de la glycémie, un exercice régulier de musculation intense et, pour les utilisateurs d'insuline, de petites injections d'insuline fréquentes si besoin. Son objectif de traitement est "une glycémie proche de la normale" tout le temps[26].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un régime alimentaire faible en glucides ou à faible indice glycémique peut constituer une option alimentaire efficace pour gérer le diabète de type 2. Celles-ci ont été promues comme efficaces en réduisant les pics de glycémie après avoir mangé. Cependant, la principale contribution pourrait être que les personnes obèses ou obèses atteintes de diabète de type 2 perdent souvent du poids en suivant ces régimes,. Tout régime entraînant une perte de poids importante chez les personnes obèses ou obèses souffrant de diabète de type 2 est associé à une amélioration du contrôle de la glycémie,.
+Richard K. Bernstein est critique à l'égard du plan de régime standard de l'American Diabetes Association. Son plan comprend un régime pauvre en glucides (30 grammes par jour), avec une surveillance fréquente de la glycémie, un exercice régulier de musculation intense et, pour les utilisateurs d'insuline, de petites injections d'insuline fréquentes si besoin. Son objectif de traitement est "une glycémie proche de la normale" tout le temps.
 Le futurologue et transhumaniste Ray Kurzweil, co-auteur de Fantastic Voyage: Vivre assez longtemps pour vivre éternellement (publié en 2004), est un autre critique du programme ADA. Ils décrivent les directives de l'ADA comme "complètement inefficaces". Leurs observations sont que la condition, en particulier à ses débuts, peut être contrôlée par un régime qui réduit fortement la consommation de glucides. Leurs recommandations pour les patients atteints de diabète de type 2 sont un régime qui inclut une réduction des glucides d’un sixième de l’apport calorique total et l’élimination des glucides à forte charge glycémique. Ayant reçu un diagnostic de diabète mais ne présentant plus aucun symptôme de la maladie, Kurzweil est un ardent défenseur de cette approche. Cependant, la prescription de Kurzweil a quelque peu changé entre son livre de 1993. La solution à 10 % pour une vie saine, dans lequel il recommandait que 10 % seulement des calories proviennent de la graisse, et Fantastic Voyage, qui en recommande 25 %.
 </t>
         </is>
@@ -666,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_diab%C3%A9tique</t>
+          <t>Régime_diabétique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -684,11 +706,13 @@
           <t>Végétalien / végétarien</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En se basant sur la preuve selon laquelle des régimes végétaliens bien planifiés peuvent contenir moins d’aliments transformés malsains et de graisses saturées[27] que le régime américain habituel, certaines études ont examiné les interventions végétaliennes (ou Végan) comme traitement possible du diabète de type 2[28]. Ces études ont montré qu'un régime végétalien peut être efficace dans la gestion du diabète de type 2[29]. Les régimes à base de plantes ont tendance à être riches en fibres, ce qui ralentit la vitesse d'absorption du sucre dans le sang[30]. De plus, les glucides simples, abondants dans les aliments transformés, qui ne sont souvent pas végétaliens, peuvent potentiellement augmenter les taux d'HbA1c davantage que d'autres aliments plus sains[31]. Au cours de plusieurs essais cliniques, les participants qui suivaient un régime végétalien présentaient une réduction plus importante de leurs taux d'hémoglobine A1c que ceux qui suivaient le régime recommandé par l'ADA[29].
-L'American Diabetes Association (ADA) a publié une déclaration déclarant qu'un régime végétalien était une option saine pour tous les âges[32]. Dans les normes 2018 de l'ADA concernant les soins médicaux dans le diabète, un régime végétalien était même inclus comme option de traitement. Diabetes UK est d' accord et a déclaré que le diabète ne devrait pas empêcher les personnes de devenir végétariennes. En fait, il pourrait être bénéfique pour les personnes diabétiques de devenir végétariennes, car cela réduirait les graisses saturées.
-Dans une méta-analyse effectuée en 2017, les auteurs sont convenus de la possibilité qu'un régime végétarien ait des effets préventifs sur le développement du diabète de type 2. Cependant, ils ont conclu qu'il fallait mener davantage de recherches dans ce domaine[33]. Une autre méta-analyse incluant douze études de cohorte a conclu que la consommation de viande rouge était associée à un risque accru de diabète de type 2[34]. Une troisième méta-analyse réalisée en 2013 comparant divers effets sur la santé des régimes alimentaires a conclu qu'un régime à base de plantes riche en aliments entiers, avec peu d'aliments transformés, peut être bénéfique pour le traitement et la prévention du diabète de type 2[35].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En se basant sur la preuve selon laquelle des régimes végétaliens bien planifiés peuvent contenir moins d’aliments transformés malsains et de graisses saturées que le régime américain habituel, certaines études ont examiné les interventions végétaliennes (ou Végan) comme traitement possible du diabète de type 2. Ces études ont montré qu'un régime végétalien peut être efficace dans la gestion du diabète de type 2. Les régimes à base de plantes ont tendance à être riches en fibres, ce qui ralentit la vitesse d'absorption du sucre dans le sang. De plus, les glucides simples, abondants dans les aliments transformés, qui ne sont souvent pas végétaliens, peuvent potentiellement augmenter les taux d'HbA1c davantage que d'autres aliments plus sains. Au cours de plusieurs essais cliniques, les participants qui suivaient un régime végétalien présentaient une réduction plus importante de leurs taux d'hémoglobine A1c que ceux qui suivaient le régime recommandé par l'ADA.
+L'American Diabetes Association (ADA) a publié une déclaration déclarant qu'un régime végétalien était une option saine pour tous les âges. Dans les normes 2018 de l'ADA concernant les soins médicaux dans le diabète, un régime végétalien était même inclus comme option de traitement. Diabetes UK est d' accord et a déclaré que le diabète ne devrait pas empêcher les personnes de devenir végétariennes. En fait, il pourrait être bénéfique pour les personnes diabétiques de devenir végétariennes, car cela réduirait les graisses saturées.
+Dans une méta-analyse effectuée en 2017, les auteurs sont convenus de la possibilité qu'un régime végétarien ait des effets préventifs sur le développement du diabète de type 2. Cependant, ils ont conclu qu'il fallait mener davantage de recherches dans ce domaine. Une autre méta-analyse incluant douze études de cohorte a conclu que la consommation de viande rouge était associée à un risque accru de diabète de type 2. Une troisième méta-analyse réalisée en 2013 comparant divers effets sur la santé des régimes alimentaires a conclu qu'un régime à base de plantes riche en aliments entiers, avec peu d'aliments transformés, peut être bénéfique pour le traitement et la prévention du diabète de type 2.
 </t>
         </is>
       </c>
@@ -699,7 +723,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_diab%C3%A9tique</t>
+          <t>Régime_diabétique</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -717,10 +741,12 @@
           <t>Moment des repas</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour les personnes atteintes de diabète, manger sainement ne dépend pas simplement de « ce que l’ on mange », mais aussi du « moment où l’on mange ». Sons Ken, Fox et Judd (1998) posent la question de savoir combien de temps avant un repas il faut injecter de l'insuline. Cela dépend du type que l'on prend et de l'insuline à action rapide, moyenne ou longue. Si le patient vérifie sa glycémie au coucher et qu'elle s’avère faible, par exemple inférieure à 6 millimoles par litre (108 mg/dl), il est conseillé de prendre des glucides à action prolongée avant de se coucher afin d'éviter l'hypoglycémie nocturne. Les sueurs nocturnes, les maux de tête, le sommeil agité et les cauchemars peuvent être un signe d'hypoglycémie nocturne. Les patients doivent consulter leur médecin pour des ajustements à leur schéma d'administration d'insuline s'ils le constatent[36]. Contre-intuitivement, un autre signe possible d'hypoglycémie nocturne est l'hyperglycémie matinale, qui survient lorsque la glycémie devient trop basse pendant la nuit. C'est ce qu'on appelle l'effet Somogyi.
-En ce qui concerne le diabète de type 2, le fait de manger la plupart des aliments plus tôt dans la journée peut être associé à une diminution du surpoids et de l'obésité, ainsi qu'à d'autres facteurs réduisant le risque de développer un diabète de type 2[37].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les personnes atteintes de diabète, manger sainement ne dépend pas simplement de « ce que l’ on mange », mais aussi du « moment où l’on mange ». Sons Ken, Fox et Judd (1998) posent la question de savoir combien de temps avant un repas il faut injecter de l'insuline. Cela dépend du type que l'on prend et de l'insuline à action rapide, moyenne ou longue. Si le patient vérifie sa glycémie au coucher et qu'elle s’avère faible, par exemple inférieure à 6 millimoles par litre (108 mg/dl), il est conseillé de prendre des glucides à action prolongée avant de se coucher afin d'éviter l'hypoglycémie nocturne. Les sueurs nocturnes, les maux de tête, le sommeil agité et les cauchemars peuvent être un signe d'hypoglycémie nocturne. Les patients doivent consulter leur médecin pour des ajustements à leur schéma d'administration d'insuline s'ils le constatent. Contre-intuitivement, un autre signe possible d'hypoglycémie nocturne est l'hyperglycémie matinale, qui survient lorsque la glycémie devient trop basse pendant la nuit. C'est ce qu'on appelle l'effet Somogyi.
+En ce qui concerne le diabète de type 2, le fait de manger la plupart des aliments plus tôt dans la journée peut être associé à une diminution du surpoids et de l'obésité, ainsi qu'à d'autres facteurs réduisant le risque de développer un diabète de type 2.
 </t>
         </is>
       </c>
@@ -731,7 +757,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_diab%C3%A9tique</t>
+          <t>Régime_diabétique</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -749,14 +775,16 @@
           <t>Produits spéciaux pour le diabète</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Diabetes UK a mis en garde contre l'achat de produits spécialement conçus pour les personnes atteintes de diabète, pour les motifs suivants[38] :
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Diabetes UK a mis en garde contre l'achat de produits spécialement conçus pour les personnes atteintes de diabète, pour les motifs suivants :
 ils peuvent être chers,
 ils peuvent contenir des niveaux élevés de graisse,
 ils peuvent ne conférer aucun avantage particulier aux personnes atteintes de diabète.
-Il convient de noter que le NICE (l'Institut national pour la santé et l'excellence clinique au Royaume-Uni) recommande aux médecins et autres professionnels de la santé de "décourager l'utilisation d'aliments destinés spécifiquement aux personnes atteintes de diabète"[39].
-Des recherches ont montré que le champignon Maitake (Grifola frondosa) avait un effet hypoglycémiant et pouvait être bénéfique pour la gestion du diabète[40],[41],[42],[43],[44],[45]. Le Maitake abaisse la glycémie car ce champignon agit naturellement comme inhibiteur de l’alpha-glucosidase[46]. D'autres champignons comme le lingzhi[47],[48], Agaricus blazei[49],[50],[51],[52], Agrocybe cylindracea[53] et Cordyceps[54],[55],[56],[57],[58] réduisent modérément la glycémie, bien que le mécanisme en soit inconnu à ce jour.
+Il convient de noter que le NICE (l'Institut national pour la santé et l'excellence clinique au Royaume-Uni) recommande aux médecins et autres professionnels de la santé de "décourager l'utilisation d'aliments destinés spécifiquement aux personnes atteintes de diabète".
+Des recherches ont montré que le champignon Maitake (Grifola frondosa) avait un effet hypoglycémiant et pouvait être bénéfique pour la gestion du diabète. Le Maitake abaisse la glycémie car ce champignon agit naturellement comme inhibiteur de l’alpha-glucosidase. D'autres champignons comme le lingzhi Agaricus blazei Agrocybe cylindracea et Cordyceps réduisent modérément la glycémie, bien que le mécanisme en soit inconnu à ce jour.
 </t>
         </is>
       </c>
@@ -767,7 +795,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_diab%C3%A9tique</t>
+          <t>Régime_diabétique</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -785,7 +813,9 @@
           <t>Alcool et médicaments</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La modération est conseillée en ce qui concerne la consommation d'alcool et la consommation de certains médicaments. L'alcool inhibe la glycogénèse dans le foie et certains médicaments inhibent les symptômes de la faim. Le jugement, la mémoire et la concentration sont altérés par certains médicaments, ce qui peut conduire à une hypoglycémie. Les personnes diabétiques qui prennent de l'insuline ou des comprimés tels que les sulfonylurées ne doivent donc pas consommer d'alcool à jeun, mais prendre des féculents (tels que du pain ou des chips) en même temps que la consommation d'alcool[citation nécessaire].
 </t>
@@ -798,7 +828,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_diab%C3%A9tique</t>
+          <t>Régime_diabétique</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -816,15 +846,17 @@
           <t>Régimes spécifiques</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Le régime Pritikin se compose de fruits, de légumes, de céréales entières, etc., en étant riche en glucides et en fibres alimentaires. Le régime alimentaire est accompagné d'exercice physique.
-Régime pauvre en glucides: réduire l'index glycémique de son régime alimentaire peut améliorer le contrôle du diabète[59],[60]. Cela implique d'éviter des aliments tels que les pommes de terre cuites de certaines manières et le pain blanc. Il favorise plutôt les pains multi-céréales et au levain, les légumineuses et les céréales non raffinées qui sont convertis plus lentement en glucose dans le sang.
-Il a été suggéré que l'élimination des glucides du régime alimentaire et leur remplacement par des aliments gras tels que les noix, les graines, la viande, le poisson, les huiles, les œufs, les avocats, les olives et les légumes pourraient aider à inverser le diabète. Les graisses deviendraient la principale source de calories pour le corps et les complications dues à la résistance à l'insuline seraient minimisées[26].
-Régime riche en fibres : Il a été démontré qu'un régime riche en fibres fonctionne mieux que le régime recommandé par l'American Diabetes Association pour contrôler le diabète et peut contrôler le taux de sucre dans le sang avec la même efficacité que les médicaments antidiabétiques oraux[61],[62],[63].
-Le régime paléolithique a été montré pour améliorer la tolérance au glucose chez les personnes atteintes de diabète de type 2[64], de maladie cardiaque ischémique et d'une intolérance au glucose[65] et chez les porcs en bonne santé[66].
-Un régime végétalien faible en gras améliore le contrôle glycémique de la même manière que le régime ADA[67].
-L’American Diabetes Association a approuvé une approche axée sur les aliments naturels pour la gestion du diabète, préconisant « frais, c’est mieux » et évitant les édulcorants artificiels, mais en ingérant des quantités mesurées de fruits frais ou de sucre raffiné[68].
+Régime pauvre en glucides: réduire l'index glycémique de son régime alimentaire peut améliorer le contrôle du diabète,. Cela implique d'éviter des aliments tels que les pommes de terre cuites de certaines manières et le pain blanc. Il favorise plutôt les pains multi-céréales et au levain, les légumineuses et les céréales non raffinées qui sont convertis plus lentement en glucose dans le sang.
+Il a été suggéré que l'élimination des glucides du régime alimentaire et leur remplacement par des aliments gras tels que les noix, les graines, la viande, le poisson, les huiles, les œufs, les avocats, les olives et les légumes pourraient aider à inverser le diabète. Les graisses deviendraient la principale source de calories pour le corps et les complications dues à la résistance à l'insuline seraient minimisées.
+Régime riche en fibres : Il a été démontré qu'un régime riche en fibres fonctionne mieux que le régime recommandé par l'American Diabetes Association pour contrôler le diabète et peut contrôler le taux de sucre dans le sang avec la même efficacité que les médicaments antidiabétiques oraux.
+Le régime paléolithique a été montré pour améliorer la tolérance au glucose chez les personnes atteintes de diabète de type 2, de maladie cardiaque ischémique et d'une intolérance au glucose et chez les porcs en bonne santé.
+Un régime végétalien faible en gras améliore le contrôle glycémique de la même manière que le régime ADA.
+L’American Diabetes Association a approuvé une approche axée sur les aliments naturels pour la gestion du diabète, préconisant « frais, c’est mieux » et évitant les édulcorants artificiels, mais en ingérant des quantités mesurées de fruits frais ou de sucre raffiné.
 </t>
         </is>
       </c>
@@ -835,7 +867,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>R%C3%A9gime_diab%C3%A9tique</t>
+          <t>Régime_diabétique</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -853,27 +885,259 @@
           <t>Exemple de régime pour diminuer le diabète, le cholestérol et la tension</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">Voici un exemple de régime qui a permis de faire diminuer le diabète, le cholestérol et la tension en 3 mois sans aucun médicament.
 Situation à l'origine: laboratoire de biologie médicale dossier 21902010106 et 21904040118 biochimie sanguine du 08/04/19 , glycémie à jeun : 2.20 g/l , glyquée ( Hb A1c ) : 9,2 % , cholestérol L.D.L 1.64 g/l , tension 17 / 9
 Situation après 3 mois : laboratoire de biologie médicale dossier 190719A20077 biochimie sanguine du 19/07/19 , glycémie à jeun : 1.35 g/l , glyquée ( Hb A1C ) : 7.3% , cholestérol L.D.L 1.25 g/l , tension 14 / 7
-Régime strict durant 15 jours à environ 600-800 calories / jour
-repas du matin
-5 cuillères à soupe de flocon d'avoine, 2 cuillères à soupe de compote de pomme, 1 cuillère à soupe de vinaigre de cidre, 1 petite cuillère d'huile de carthame, 1 gousse d'ail, 1 boîte de sardines à l'huile d'olive, 1 yaourt nature, boisson thé non sucré ou eau pour la journée.
-activité physique, sport ou danse, 30 minutes 3 fois par semaine
-en-cas si une fringale survient
-2 cuillères à soupe de flocons d'avoine, 2 cuillères à soupe de compote de pomme.
-repas du soir
-4 cuillères à soupe de flocons d'avoine, 2 cuillères à soupe de compote de pomme, à volonté légumes verts type haricots verts, épinards, brocolis, salade, persil, ail, huile d'olive, vinaigre de cidre, 1 ou 2 fruits frais, boisson thé non sucré ou eau.
-Régime allégé durant 3 mois
-repas du matin
-5 cuillères à soupe de flocon d'avoine, 2 cuillères à soupe de compote de pomme, 1 cuillère à soupe de vinaigre de cidre, 1 petite cuillère d'huile de carthame, 1 gousse d'ail, 1 boîte de sardines à l'huile d'olive ou 3 blancs d'œuf, 1 yaourt nature, 1 fruit, boisson thé non sucré ou eau pour la journée.
-activité physique, sport ou danse, 30 minutes 3 fois par semaine
-en-cas si une fringale survient
-2 cuillères à soupe de flocon d'avoine, 2 cuillères à soupe de compote de pomme.
-repas du soir
-4 cuillères à soupe de flocon d'avoine, 2 cuillères à soupe de compote de pomme, à volonté légumes verts type haricots verts, épinards, brocolis, salade, persil, aïl, huile d'olive, vinaigre de cidre, au choix : poisson blanc, moules, coquillages, crustacés ou blanc de volaille, 1 ou 2 fruits frais, boisson thé non sucré ou eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Régime_diabétique</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gime_diab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Exemple de régime pour diminuer le diabète, le cholestérol et la tension</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Régime strict durant 15 jours à environ 600-800 calories / jour</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>repas du matin</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 cuillères à soupe de flocon d'avoine, 2 cuillères à soupe de compote de pomme, 1 cuillère à soupe de vinaigre de cidre, 1 petite cuillère d'huile de carthame, 1 gousse d'ail, 1 boîte de sardines à l'huile d'olive, 1 yaourt nature, boisson thé non sucré ou eau pour la journée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Régime_diabétique</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gime_diab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Exemple de régime pour diminuer le diabète, le cholestérol et la tension</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Régime strict durant 15 jours à environ 600-800 calories / jour</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>en-cas si une fringale survient</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 cuillères à soupe de flocons d'avoine, 2 cuillères à soupe de compote de pomme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Régime_diabétique</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gime_diab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Exemple de régime pour diminuer le diabète, le cholestérol et la tension</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Régime strict durant 15 jours à environ 600-800 calories / jour</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>repas du soir</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 cuillères à soupe de flocons d'avoine, 2 cuillères à soupe de compote de pomme, à volonté légumes verts type haricots verts, épinards, brocolis, salade, persil, ail, huile d'olive, vinaigre de cidre, 1 ou 2 fruits frais, boisson thé non sucré ou eau.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Régime_diabétique</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gime_diab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Exemple de régime pour diminuer le diabète, le cholestérol et la tension</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Régime allégé durant 3 mois</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>repas du matin</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">5 cuillères à soupe de flocon d'avoine, 2 cuillères à soupe de compote de pomme, 1 cuillère à soupe de vinaigre de cidre, 1 petite cuillère d'huile de carthame, 1 gousse d'ail, 1 boîte de sardines à l'huile d'olive ou 3 blancs d'œuf, 1 yaourt nature, 1 fruit, boisson thé non sucré ou eau pour la journée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Régime_diabétique</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gime_diab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Exemple de régime pour diminuer le diabète, le cholestérol et la tension</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Régime allégé durant 3 mois</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>en-cas si une fringale survient</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 cuillères à soupe de flocon d'avoine, 2 cuillères à soupe de compote de pomme.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Régime_diabétique</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9gime_diab%C3%A9tique</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Exemple de régime pour diminuer le diabète, le cholestérol et la tension</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Régime allégé durant 3 mois</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>repas du soir</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">4 cuillères à soupe de flocon d'avoine, 2 cuillères à soupe de compote de pomme, à volonté légumes verts type haricots verts, épinards, brocolis, salade, persil, aïl, huile d'olive, vinaigre de cidre, au choix : poisson blanc, moules, coquillages, crustacés ou blanc de volaille, 1 ou 2 fruits frais, boisson thé non sucré ou eau.
 Pas de pain ou biscottes, pas de sucre, pas de riz, pâtes ou féculents, pas de beurre, pas de charcuterie, pas de pâtisserie.
 </t>
         </is>
